--- a/Data/Andromeda/Stack gap - 3071298014/1.5/3071298014.xlsx
+++ b/Data/Andromeda/Stack gap - 3071298014/1.5/3071298014.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="127">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -66,292 +66,316 @@
     <t xml:space="preserve">Enable multistack.\nExpect that similar items cannot be multistacked for fit in criteria</t>
   </si>
   <si>
+    <t xml:space="preserve">해당 저장구역에 대해 품목별 칸당 최대 스택 설정을 활성화합니다.\n\n각각의 품목마다 저장구역 한 칸에 저장될 수 있는 스택의 수는 설정된 값을 넘어설 수 없습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit similar stacks x{0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 칸당 최대 스택: x{0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimitDisabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimitDisabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit on individual stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 칸당 스택 무제한</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimitDefault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimitDefault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply to entire storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저장소 전체에 적용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimitDefaultTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimitDefaultTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The limit applies to the total number of items in the entire storage.\n\nFor example, if you set the steel limit to 25, there will be no more than 25 units of steel in the entire storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 제한 값이 저장소 전체에 적용됩니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하면 저장소에 25개의 강철이 저장됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimitDisabledTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimitDisabledTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The limit applies to each slot separately.\n\nFor example, with a steel limit of 25, you can put up to 25 units of steel in each slot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 제한 값이 각 칸마다 별개로 적용됩니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하면 각 칸마다 25개의 강철이 저장됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+SimilarStackLimitTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimilarStackLimitTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The limit regulates the number of items per slot and the number of similar stacks.\n\nFor example, with a limit of 25 steel and a restriction of 2 similar stacks, there will be no more than two stacks of 25 steel in the entire storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량과 스택 숫자를 제한합니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하고 최대 스택 수가 2로 제한되어 있는 경우 저장소에 25개의 강철이 2스택까지 저장됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+StackGapSettingsCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StackGapSettingsCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+EnableHardEjection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnableHardEjection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable forced item ejection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 제한 초과시 강제로 스택 분할</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+EnableHardEjectionTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnableHardEjectionTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If enabled, overflow of items from the storages will be forcibly ejected on floor, to meet the specified criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">설정 변경 등으로 인해 저장구역에 놓인 물품이 지정된 수량을 넘어서는 경우 강제로 바닥에 떨어트립니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+DisplayLogFactorInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogFactorInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack limit slider in storages is not linear for usability. If your item stacks can store thousands of items, set this value higher (default 3.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 제한 슬라이더는 편의를 위해 각 구간이 비선형적으로 되어있습니다.\n\n비선형도가 낮을수록 슬라이더의 상대적 위치와 수량이 일치하며, 높을수록 낮은 수량 구간에서 더 세밀한 설정이 가능합니다.\n\n설정 (기본값 3.0):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+DisplayLogFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비선형도</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+DisplayLogFactorExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogFactorExample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And here you can see how this modifier works:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비선형도에 따른 변화는 다음 슬라이더로 확인해보세요:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+DisplayLogFactorExampleNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayLogFactorExampleNote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(this slider has no effect on anything)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(위 슬라이더는 게임에 영향을 주지 않습니다)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+PressIfStackSizeChangedRuntime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PressIfStackSizeChangedRuntime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press if you changed stack size after starting the game by mods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모드 등으로 스택 크기가 바뀐 경우 이 버튼을 눌러서 재설정하세요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+PercentageMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PercentageMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use percentage instead of item count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 대신 최대 저장 공간에 따른 상대적 비율로 동작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+EnableSimilarStackLimits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnableSimilarStackLimits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable similar stacks limit stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 칸당 최대 스택 제한 활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackDisabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackDisabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 안 함</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackModeDisabledTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackModeDisabledTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 칸당 최대 스택 설정을 무시하고 사용하지 않습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackEnabledGlobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackEnabledGlobal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack enabled global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 저장구역에 적용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackModeEnabledGlobalTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackModeEnabledGlobalTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack enabled for every storage. Enable it if you dont like checkbox in storage settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 저장구역이 품목별 칸당 최대 스택 설정을 사용하도록 합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackEnabledPerStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackEnabledPerStorage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack per storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저장구역마다 개별 설정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackModeEnabledPerStorageTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackModeEnabledPerStorageTooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack can be enabled or disabled for each storage individually. No performance cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">각각의 저장구역마다 품목별 칸당 최대 스택을 사용할지 여부를 지정할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+LimitSliderMaxValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LimitSliderMaxValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit slider max value:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량 제한 최대값 (0으로 설정시 기본값 500):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+MultistackInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultistackInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multistack means how many item stacks can be placed in one world cell. Many custom storages can handle more that one stack.\nNo affect unrestricted storages. Expect that similar items cannot be multistacked for fit in criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 칸당 최대 스택 제한은 저장구역 한 칸마다 각각의 품목에 대해 얼마나 많은 스택이 저장될지 설정합니다.\n선반과 같은 대다수의 추가 저장소는 일반적으로 한 칸에 여러 개의 스택을 저장할 수 있습니다.\n무한 스택 저장고에는 적용되지 않습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">해당 저장구역에 대해 품목별 셀당 최대 스택 설정을 활성화합니다.\n\n각각의 품목마다 저장구역 한 칸에 저장될 수 있는 스택의 수는 설정된 값을 넘어설 수 없습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit similar stacks x{0}</t>
-  </si>
-  <si>
     <t xml:space="preserve">품목별 셀당 최대 스택: x{0}</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimitDisabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimitDisabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit on individual stacks</t>
+    <t xml:space="preserve">Unlimited similar stacks</t>
   </si>
   <si>
     <t xml:space="preserve">품목별 셀당 스택 무제한</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimitDefault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimitDefault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply to entire storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저장소 전체에 적용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimitDefaultTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimitDefaultTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The limit applies to the total number of items in the entire storage.\n\nFor example, if you set the steel limit to 25, there will be no more than 25 units of steel in the entire storage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 제한 값이 저장소 전체에 적용됩니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하면 저장소에 25개의 강철이 저장됩니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimitDisabledTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimitDisabledTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The limit applies to each slot separately.\n\nFor example, with a steel limit of 25, you can put up to 25 units of steel in each slot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 제한 값이 각 칸마다 별개로 적용됩니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하면 각 칸마다 25개의 강철이 저장됩니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+SimilarStackLimitTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SimilarStackLimitTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The limit regulates the number of items per slot and the number of similar stacks.\n\nFor example, with a limit of 25 steel and a restriction of 2 similar stacks, there will be no more than two stacks of 25 steel in the entire storage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량과 스택 숫자를 제한합니다.\n\n예를 들어 강철을 지정한 후 수량 제한을 25로 지정하고 최대 스택 수가 2로 제한되어 있는 경우 저장소에 25개의 강철이 2스택까지 저장됩니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+StackGapSettingsCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StackGapSettingsCategory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+EnableHardEjection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnableHardEjection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable forced item ejection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 제한 초과시 강제로 스택 분할</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+EnableHardEjectionTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnableHardEjectionTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If enabled, overflow of items from the storages will be forcibly ejected on floor, to meet the specified criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">설정 변경 등으로 인해 저장구역에 놓인 물품이 지정된 수량을 넘어서는 경우 강제로 바닥에 떨어트립니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+DisplayLogFactorInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayLogFactorInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack limit slider in storages is not linear for usability. If your item stacks can store thousands of items, set this value higher (default 3.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 제한 슬라이더는 편의를 위해 각 구간이 비선형적으로 되어있습니다.\n\n비선형도가 낮을수록 슬라이더의 상대적 위치와 수량이 일치하며, 높을수록 낮은 수량 구간에서 더 세밀한 설정이 가능합니다.\n\n설정 (기본값 3.0):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+DisplayLogFactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayLogFactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비선형도</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+DisplayLogFactorExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayLogFactorExample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And here you can see how this modifier works:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">비선형도에 따른 변화는 다음 슬라이더로 확인해보세요:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+DisplayLogFactorExampleNote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayLogFactorExampleNote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(this slider has no effect on anything)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(위 슬라이더는 게임에 영향을 주지 않습니다)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+PressIfStackSizeChangedRuntime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PressIfStackSizeChangedRuntime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press if you changed stack size after starting the game by mods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모드 등으로 스택 크기가 바뀐 경우 이 버튼을 눌러서 재설정하세요</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+PercentageMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PercentageMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use percentage instead of item count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 대신 최대 저장 공간에 따른 상대적 비율로 동작</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+EnableSimilarStackLimits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnableSimilarStackLimits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable similar stacks limit stuff</t>
-  </si>
-  <si>
     <t xml:space="preserve">품목별 셀당 최대 스택 제한 활성화</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+MultistackDisabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackDisabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">사용 안 함</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+MultistackModeDisabledTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackModeDisabledTooltip</t>
-  </si>
-  <si>
     <t xml:space="preserve">품목별 셀당 최대 스택 설정을 무시하고 사용하지 않습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+MultistackEnabledGlobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackEnabledGlobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack enabled global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 저장구역에 적용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+MultistackModeEnabledGlobalTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackModeEnabledGlobalTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack enabled for every storage. Enable it if you dont like checkbox in storage settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">모든 저장구역이 품목별 셀당 최대 스택 설정을 사용하도록 합니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+MultistackEnabledPerStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackEnabledPerStorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack per storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">저장구역마다 개별 설정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+MultistackModeEnabledPerStorageTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackModeEnabledPerStorageTooltip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack can be enabled or disabled for each storage individually. No performance cost</t>
-  </si>
-  <si>
     <t xml:space="preserve">각각의 저장구역마다 품목별 셀당 최대 스택을 사용할지 여부를 지정할 수 있습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">Keyed+LimitSliderMaxValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LimitSliderMaxValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limit slider max value:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">수량 제한 최대값 (0으로 설정시 기본값 500):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+MultistackInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultistackInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multistack means how many item stacks can be placed in one world cell. Many custom storages can handle more that one stack.\nNo affect unrestricted storages. Expect that similar items cannot be multistacked for fit in criteria</t>
-  </si>
-  <si>
     <t xml:space="preserve">품목별 셀당 최대 스택 제한은 저장구역 한 칸마다 각각의 품목에 대해 얼마나 많은 스택이 저장될지 설정합니다.\n선반과 같은 대다수의 추가 저장소는 일반적으로 한 칸에 여러 개의 스택을 저장할 수 있습니다.\n무한 스택 저장고에는 적용되지 않습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unlimited similar stacks</t>
   </si>
   <si>
     <t xml:space="preserve">EN [Source string]</t>
@@ -394,6 +418,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -574,11 +599,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,19 +615,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,7 +635,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -884,7 +909,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="62.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="54.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="2" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,7 +1010,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1002,7 +1027,7 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1019,7 +1044,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1036,7 +1061,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1373,46 +1398,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="40.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="16.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="34.6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="3" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="73.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="94.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.6"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="73.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="94.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="7.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1420,67 +1445,67 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>109</v>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1488,16 +1513,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1505,16 +1530,16 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1522,16 +1547,16 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1539,16 +1564,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1556,16 +1581,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1573,16 +1598,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1590,16 +1615,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1607,16 +1632,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1624,33 +1649,33 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1658,33 +1683,33 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1692,33 +1717,33 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1726,33 +1751,33 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1760,20 +1785,20 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1823,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.2890625" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.28125" defaultRowHeight="17" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="33.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.86"/>
@@ -1820,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,7 +1889,7 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1909,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,10 +1926,10 @@
         <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
